--- a/fourth_pass/welfare_results/3282/analysis_results/net_series_3282.xlsx
+++ b/fourth_pass/welfare_results/3282/analysis_results/net_series_3282.xlsx
@@ -380,16 +380,16 @@
         <v>1991</v>
       </c>
       <c r="B2" t="n">
-        <v>-421675999381090176</v>
+        <v>-414685708118954304</v>
       </c>
       <c r="C2" t="n">
-        <v>-174846891080698</v>
+        <v>-172000681283411</v>
       </c>
       <c r="D2" t="n">
-        <v>103353856441857830027264</v>
+        <v>101689501379444527333376</v>
       </c>
       <c r="E2" t="n">
-        <v>10000621221271789568</v>
+        <v>9834185715030458368</v>
       </c>
     </row>
     <row r="3">
@@ -397,16 +397,16 @@
         <v>1992</v>
       </c>
       <c r="B3" t="n">
-        <v>-421675917786344256</v>
+        <v>-414103102252363712</v>
       </c>
       <c r="C3" t="n">
-        <v>-174843217191932</v>
+        <v>-171759823244871</v>
       </c>
       <c r="D3" t="n">
-        <v>103355969745017720799232</v>
+        <v>101552918427403292770304</v>
       </c>
       <c r="E3" t="n">
-        <v>10000621193081489408</v>
+        <v>9820316061320046592</v>
       </c>
     </row>
     <row r="4">
@@ -414,16 +414,16 @@
         <v>1993</v>
       </c>
       <c r="B4" t="n">
-        <v>-421675876347115392</v>
+        <v>-413520536541290240</v>
       </c>
       <c r="C4" t="n">
-        <v>-174839728633226</v>
+        <v>-171519150536391</v>
       </c>
       <c r="D4" t="n">
-        <v>103358129141442932637696</v>
+        <v>101416381568627412828160</v>
       </c>
       <c r="E4" t="n">
-        <v>10000621176549126144</v>
+        <v>9806446419267573760</v>
       </c>
     </row>
     <row r="5">
@@ -431,16 +431,16 @@
         <v>1994</v>
       </c>
       <c r="B5" t="n">
-        <v>-421675866551677312</v>
+        <v>-412938002474007424</v>
       </c>
       <c r="C5" t="n">
-        <v>-174835843350758</v>
+        <v>-171278081104149</v>
       </c>
       <c r="D5" t="n">
-        <v>103360295704167693942784</v>
+        <v>101279851876151065575424</v>
       </c>
       <c r="E5" t="n">
-        <v>10000621170180102144</v>
+        <v>9792576787378438144</v>
       </c>
     </row>
     <row r="6">
@@ -448,16 +448,16 @@
         <v>1995</v>
       </c>
       <c r="B6" t="n">
-        <v>-421675887900713664</v>
+        <v>-412355499551199040</v>
       </c>
       <c r="C6" t="n">
-        <v>-174831838755401</v>
+        <v>-171036892359019</v>
       </c>
       <c r="D6" t="n">
-        <v>103362491849377438498816</v>
+        <v>101143351766159684796416</v>
       </c>
       <c r="E6" t="n">
-        <v>10000621175044995072</v>
+        <v>9778707166723219456</v>
       </c>
     </row>
     <row r="7">
@@ -465,16 +465,16 @@
         <v>1996</v>
       </c>
       <c r="B7" t="n">
-        <v>-421675913672270912</v>
+        <v>-411773001050911616</v>
       </c>
       <c r="C7" t="n">
-        <v>-174827585974627</v>
+        <v>-170795455428471</v>
       </c>
       <c r="D7" t="n">
-        <v>103364722543417274400768</v>
+        <v>101006886204998412140544</v>
       </c>
       <c r="E7" t="n">
-        <v>10000621180234504192</v>
+        <v>9764837546392616960</v>
       </c>
     </row>
     <row r="8">
@@ -482,16 +482,16 @@
         <v>1997</v>
       </c>
       <c r="B8" t="n">
-        <v>-421675925888312256</v>
+        <v>-411190488995108416</v>
       </c>
       <c r="C8" t="n">
-        <v>-174822896724276</v>
+        <v>-170553582028346</v>
       </c>
       <c r="D8" t="n">
-        <v>103366739631927306747904</v>
+        <v>100870207038307352707072</v>
       </c>
       <c r="E8" t="n">
-        <v>10000621182331512832</v>
+        <v>9750967922969516032</v>
       </c>
     </row>
     <row r="9">
@@ -499,16 +499,16 @@
         <v>1998</v>
       </c>
       <c r="B9" t="n">
-        <v>-421675933913889408</v>
+        <v>-410607972748840896</v>
       </c>
       <c r="C9" t="n">
-        <v>-174818987619291</v>
+        <v>-170312488773587</v>
       </c>
       <c r="D9" t="n">
-        <v>103368666149631802998784</v>
+        <v>100733437300810723622912</v>
       </c>
       <c r="E9" t="n">
-        <v>10000621192491395072</v>
+        <v>9737098307609286656</v>
       </c>
     </row>
     <row r="10">
@@ -516,16 +516,16 @@
         <v>1999</v>
       </c>
       <c r="B10" t="n">
-        <v>-421675988208106496</v>
+        <v>-410025502771213248</v>
       </c>
       <c r="C10" t="n">
-        <v>-174814849793448</v>
+        <v>-170071166797970</v>
       </c>
       <c r="D10" t="n">
-        <v>103370864872099386753024</v>
+        <v>100596939768077198819328</v>
       </c>
       <c r="E10" t="n">
-        <v>10000621207539107840</v>
+        <v>9723228697136887808</v>
       </c>
     </row>
     <row r="11">
@@ -533,16 +533,16 @@
         <v>2000</v>
       </c>
       <c r="B11" t="n">
-        <v>-421676121642647552</v>
+        <v>-409443111933909696</v>
       </c>
       <c r="C11" t="n">
-        <v>-174809109846138</v>
+        <v>-169828242700886</v>
       </c>
       <c r="D11" t="n">
-        <v>103372928592139335499776</v>
+        <v>100460307232916055785472</v>
       </c>
       <c r="E11" t="n">
-        <v>10000621249801353216</v>
+        <v>9709359113879023616</v>
       </c>
     </row>
     <row r="12">
@@ -550,16 +550,16 @@
         <v>2001</v>
       </c>
       <c r="B12" t="n">
-        <v>-421676199191688896</v>
+        <v>-408860665211106304</v>
       </c>
       <c r="C12" t="n">
-        <v>-174804545042885</v>
+        <v>-169586493747859</v>
       </c>
       <c r="D12" t="n">
-        <v>103375001850701728972800</v>
+        <v>100323684236277323923456</v>
       </c>
       <c r="E12" t="n">
-        <v>10000621273354946560</v>
+        <v>9695489511912505344</v>
       </c>
     </row>
     <row r="13">
@@ -567,16 +567,16 @@
         <v>2002</v>
       </c>
       <c r="B13" t="n">
-        <v>-421676289700228736</v>
+        <v>-408278231447801536</v>
       </c>
       <c r="C13" t="n">
-        <v>-174800116169135</v>
+        <v>-169344880724335</v>
       </c>
       <c r="D13" t="n">
-        <v>103377152529988604395520</v>
+        <v>100187138660363090788352</v>
       </c>
       <c r="E13" t="n">
-        <v>10000621297624096768</v>
+        <v>9681619910661543936</v>
       </c>
     </row>
     <row r="14">
@@ -584,16 +584,16 @@
         <v>2003</v>
       </c>
       <c r="B14" t="n">
-        <v>-421676363900225920</v>
+        <v>-407695781375954048</v>
       </c>
       <c r="C14" t="n">
-        <v>-174795481320510</v>
+        <v>-169103061725936</v>
       </c>
       <c r="D14" t="n">
-        <v>103379581989054180229120</v>
+        <v>100050871864227541286912</v>
       </c>
       <c r="E14" t="n">
-        <v>10000621319658108928</v>
+        <v>9667750307175444480</v>
       </c>
     </row>
     <row r="15">
@@ -601,16 +601,16 @@
         <v>2004</v>
       </c>
       <c r="B15" t="n">
-        <v>-421676422848689216</v>
+        <v>-407113316052572736</v>
       </c>
       <c r="C15" t="n">
-        <v>-174788682087301</v>
+        <v>-168859078342954</v>
       </c>
       <c r="D15" t="n">
-        <v>103381840510221536985088</v>
+        <v>99914434130193806262272</v>
       </c>
       <c r="E15" t="n">
-        <v>10000621336310636544</v>
+        <v>9653880698307862528</v>
       </c>
     </row>
     <row r="16">
@@ -618,16 +618,16 @@
         <v>2005</v>
       </c>
       <c r="B16" t="n">
-        <v>-421676546191028864</v>
+        <v>-406530915123067712</v>
       </c>
       <c r="C16" t="n">
-        <v>-174781828335582</v>
+        <v>-168615040441461</v>
       </c>
       <c r="D16" t="n">
-        <v>103384172418258968772608</v>
+        <v>99778069783030146269184</v>
       </c>
       <c r="E16" t="n">
-        <v>10000621374375358464</v>
+        <v>9640011110852474880</v>
       </c>
     </row>
     <row r="17">
@@ -635,16 +635,16 @@
         <v>2006</v>
       </c>
       <c r="B17" t="n">
-        <v>-421676629685796480</v>
+        <v>-405948474345990720</v>
       </c>
       <c r="C17" t="n">
-        <v>-174773002901832</v>
+        <v>-168369030857937</v>
       </c>
       <c r="D17" t="n">
-        <v>103386435564633958907904</v>
+        <v>99641636674204011069440</v>
       </c>
       <c r="E17" t="n">
-        <v>10000621400806713344</v>
+        <v>9626141511763718144</v>
       </c>
     </row>
     <row r="18">
@@ -652,16 +652,16 @@
         <v>2007</v>
       </c>
       <c r="B18" t="n">
-        <v>-421676633570678976</v>
+        <v>-405365953959028544</v>
       </c>
       <c r="C18" t="n">
-        <v>-174764647839820</v>
+        <v>-168123491646151</v>
       </c>
       <c r="D18" t="n">
-        <v>103388786488035449503744</v>
+        <v>99505291342404393107456</v>
       </c>
       <c r="E18" t="n">
-        <v>10000621399033640960</v>
+        <v>9612271884470534144</v>
       </c>
     </row>
     <row r="19">
@@ -669,16 +669,16 @@
         <v>2008</v>
       </c>
       <c r="B19" t="n">
-        <v>-421676761363064768</v>
+        <v>-404783557479569600</v>
       </c>
       <c r="C19" t="n">
-        <v>-174757885222006</v>
+        <v>-167879544878563</v>
       </c>
       <c r="D19" t="n">
-        <v>103391201405185218838528</v>
+        <v>99369010004353037107200</v>
       </c>
       <c r="E19" t="n">
-        <v>10000621437320951808</v>
+        <v>9598402297237733376</v>
       </c>
     </row>
     <row r="20">
@@ -686,16 +686,16 @@
         <v>2009</v>
       </c>
       <c r="B20" t="n">
-        <v>-421676826600100160</v>
+        <v>-404201098444760384</v>
       </c>
       <c r="C20" t="n">
-        <v>-174755510524917</v>
+        <v>-167639986031700</v>
       </c>
       <c r="D20" t="n">
-        <v>103393524542472837922816</v>
+        <v>99232636886439581188096</v>
       </c>
       <c r="E20" t="n">
-        <v>10000621453727520768</v>
+        <v>9584532688124192768</v>
       </c>
     </row>
     <row r="21">
@@ -703,16 +703,16 @@
         <v>2010</v>
       </c>
       <c r="B21" t="n">
-        <v>-421677015079144448</v>
+        <v>-403618762651959936</v>
       </c>
       <c r="C21" t="n">
-        <v>-174747860009878</v>
+        <v>-167395151366887</v>
       </c>
       <c r="D21" t="n">
-        <v>103395932740319027658752</v>
+        <v>99096348829084645588992</v>
       </c>
       <c r="E21" t="n">
-        <v>10000621513267912704</v>
+        <v>9570663122144473088</v>
       </c>
     </row>
     <row r="22">
@@ -720,16 +720,16 @@
         <v>2011</v>
       </c>
       <c r="B22" t="n">
-        <v>-421677054222757632</v>
+        <v>-403036277523728448</v>
       </c>
       <c r="C22" t="n">
-        <v>-174739235977367</v>
+        <v>-167149343184602</v>
       </c>
       <c r="D22" t="n">
-        <v>103398156025430018097152</v>
+        <v>98959875858994510692352</v>
       </c>
       <c r="E22" t="n">
-        <v>10000621528921430016</v>
+        <v>9556793512277878784</v>
       </c>
     </row>
     <row r="23">
@@ -737,16 +737,16 @@
         <v>2012</v>
       </c>
       <c r="B23" t="n">
-        <v>-421677264178976448</v>
+        <v>-402453963208102720</v>
       </c>
       <c r="C23" t="n">
-        <v>-174732397612816</v>
+        <v>-166905320670277</v>
       </c>
       <c r="D23" t="n">
-        <v>103400934827426307899392</v>
+        <v>98823958405789708713984</v>
       </c>
       <c r="E23" t="n">
-        <v>10000621593488027648</v>
+        <v>9542923951324366848</v>
       </c>
     </row>
     <row r="24">
@@ -754,16 +754,16 @@
         <v>2013</v>
       </c>
       <c r="B24" t="n">
-        <v>-421677434119272512</v>
+        <v>-401871608876554112</v>
       </c>
       <c r="C24" t="n">
-        <v>-174725415187956</v>
+        <v>-166661154095644</v>
       </c>
       <c r="D24" t="n">
-        <v>103403610158740686241792</v>
+        <v>98687937481902978498560</v>
       </c>
       <c r="E24" t="n">
-        <v>10000621645973329920</v>
+        <v>9529054378289557504</v>
       </c>
     </row>
     <row r="25">
@@ -771,16 +771,16 @@
         <v>2014</v>
       </c>
       <c r="B25" t="n">
-        <v>-421677582514567296</v>
+        <v>-401289233000004160</v>
       </c>
       <c r="C25" t="n">
-        <v>-174719182205797</v>
+        <v>-166417736963711</v>
       </c>
       <c r="D25" t="n">
-        <v>103406053643646515806208</v>
+        <v>98551684711607682727936</v>
       </c>
       <c r="E25" t="n">
-        <v>10000621694125864960</v>
+        <v>9515184800921980928</v>
       </c>
     </row>
     <row r="26">
@@ -788,16 +788,16 @@
         <v>2015</v>
       </c>
       <c r="B26" t="n">
-        <v>-421677741055822528</v>
+        <v>-400706867269414720</v>
       </c>
       <c r="C26" t="n">
-        <v>-174714844531706</v>
+        <v>-166176215139846</v>
       </c>
       <c r="D26" t="n">
-        <v>103408511219587887398912</v>
+        <v>98415446032347945762816</v>
       </c>
       <c r="E26" t="n">
-        <v>10000621742000879616</v>
+        <v>9501315223276883968</v>
       </c>
     </row>
     <row r="27">
@@ -805,16 +805,16 @@
         <v>2016</v>
       </c>
       <c r="B27" t="n">
-        <v>-421677855315945152</v>
+        <v>-400124457257692672</v>
       </c>
       <c r="C27" t="n">
-        <v>-174708309166243</v>
+        <v>-165932495624609</v>
       </c>
       <c r="D27" t="n">
-        <v>103411159236334984364032</v>
+        <v>98279397793893934170112</v>
       </c>
       <c r="E27" t="n">
-        <v>10000621774712178688</v>
+        <v>9487445630468073472</v>
       </c>
     </row>
     <row r="28">
@@ -822,16 +822,16 @@
         <v>2017</v>
       </c>
       <c r="B28" t="n">
-        <v>-421677980235732352</v>
+        <v>-399542057905635392</v>
       </c>
       <c r="C28" t="n">
-        <v>-174699729056519</v>
+        <v>-165686731365111</v>
       </c>
       <c r="D28" t="n">
-        <v>103413743587797248245760</v>
+        <v>98143285890155106271232</v>
       </c>
       <c r="E28" t="n">
-        <v>10000621805805127680</v>
+        <v>9473576036040912896</v>
       </c>
     </row>
   </sheetData>
